--- a/MCCU_output.xlsx
+++ b/MCCU_output.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q14_r1_recode_series.xlsx" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q14_r1_recode_series" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -696,4 +698,658 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Checked</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Checked</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Checked</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>18-34</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>35-55</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>55+</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>At least $40,000 but less than $60,000</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>At least $60,000 but less than $80,000</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>At least $80,000 but less than $110,000</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>At least $110,000</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Basic Banking (Up to 2 Services)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Basic Plus (3 - 5 Services)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Banking (At Least 5 Services)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Not T2B</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3442622950819672</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4308943089430894</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3507462686567164</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4658385093167702</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.4290657439446367</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.3925233644859813</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.3981481481481481</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.3910891089108911</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.3772727272727273</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.2908163265306122</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.3366336633663367</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.6164383561643836</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.559322033898305</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.3193717277486911</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.4897959183673469</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>T2B</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6557377049180327</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5691056910569106</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6492537313432836</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5341614906832298</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.5709342560553633</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6074766355140186</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6018518518518519</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6089108910891089</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.6805555555555556</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.6227272727272727</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.7091836734693877</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.6633663366336634</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.3835616438356164</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.680628272251309</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>T2B</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4810996563573883</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5741626794258373</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4886363636363636</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5370370370370371</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4896142433234421</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5828220858895705</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5189873417721519</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5975609756097561</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.524904214559387</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.6123348017621145</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.5317460317460317</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.345679012345679</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.5579399141630901</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.4906542056074766</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:U5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Q14_r6_recode</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Checked</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Checked</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>Checked</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>18-34</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>35-55</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>55+</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>At least $40,000 but less than $60,000</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>At least $60,000 but less than $80,000</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>At least $80,000 but less than $110,000</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>At least $110,000</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>Basic Banking (Up to 2 Services)</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>Basic Plus (3 - 5 Services)</t>
+        </is>
+      </c>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Banking (At Least 5 Services)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Not T2B</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3442622950819672</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4308943089430894</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3507462686567164</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4658385093167702</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4290657439446367</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3925233644859813</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.3981481481481481</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.3910891089108911</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.3772727272727273</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.2908163265306122</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.3366336633663367</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.6164383561643836</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.559322033898305</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.3193717277486911</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.4897959183673469</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>T2B</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6557377049180327</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5691056910569106</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6492537313432836</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5341614906832298</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5709342560553633</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6074766355140186</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6018518518518519</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6089108910891089</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.6805555555555556</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.6227272727272727</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.7091836734693877</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.6633663366336634</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.3835616438356164</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.680628272251309</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>T2B</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4810996563573883</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5741626794258373</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4886363636363636</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5370370370370371</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4896142433234421</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5828220858895705</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5189873417721519</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5975609756097561</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.524904214559387</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.6123348017621145</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.5317460317460317</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.345679012345679</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.5579399141630901</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.4906542056074766</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/MCCU_output.xlsx
+++ b/MCCU_output.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q14_r1_recode_series.xlsx" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q14_r1_recode_series" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,64 +566,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3442622950819672</v>
+        <v>0.126</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4308943089430894</v>
+        <v>0.212</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3507462686567164</v>
+        <v>0.188</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4658385093167702</v>
+        <v>0.15</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3214285714285715</v>
+        <v>0.09</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4290657439446367</v>
+        <v>0.248</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3925233644859813</v>
+        <v>0.252</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3981481481481481</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3910891089108911</v>
+        <v>0.316</v>
       </c>
       <c r="K2" t="n">
-        <v>0.44</v>
+        <v>0.022</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3194444444444444</v>
+        <v>0.092</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3772727272727273</v>
+        <v>0.166</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.08</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2908163265306122</v>
+        <v>0.114</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3366336633663367</v>
+        <v>0.068</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.09</v>
       </c>
       <c r="R2" t="n">
-        <v>0.559322033898305</v>
+        <v>0.066</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3193717277486911</v>
+        <v>0.122</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.168</v>
       </c>
       <c r="U2" t="n">
-        <v>0.4897959183673469</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="3">
@@ -633,64 +633,305 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6557377049180327</v>
+        <v>0.24</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5691056910569106</v>
+        <v>0.28</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6492537313432836</v>
+        <v>0.348</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5341614906832298</v>
+        <v>0.172</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6785714285714286</v>
+        <v>0.19</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5709342560553633</v>
+        <v>0.33</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6074766355140186</v>
+        <v>0.39</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6018518518518519</v>
+        <v>0.13</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6089108910891089</v>
+        <v>0.492</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.028</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6805555555555556</v>
+        <v>0.196</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6227272727272727</v>
+        <v>0.274</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7091836734693877</v>
+        <v>0.278</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6633663366336634</v>
+        <v>0.134</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3835616438356164</v>
+        <v>0.056</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4406779661016949</v>
+        <v>0.052</v>
       </c>
       <c r="S3" t="n">
-        <v>0.680628272251309</v>
+        <v>0.26</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.21</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>Checked</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H18" s="1" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="I18" s="1" t="inlineStr">
+        <is>
+          <t>Checked</t>
+        </is>
+      </c>
+      <c r="J18" s="1" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="K18" s="1" t="inlineStr">
+        <is>
+          <t>Checked</t>
+        </is>
+      </c>
+      <c r="L18" s="1" t="inlineStr">
+        <is>
+          <t>18-34</t>
+        </is>
+      </c>
+      <c r="M18" s="1" t="inlineStr">
+        <is>
+          <t>35-55</t>
+        </is>
+      </c>
+      <c r="N18" s="1" t="inlineStr">
+        <is>
+          <t>55+</t>
+        </is>
+      </c>
+      <c r="O18" s="1" t="inlineStr">
+        <is>
+          <t>At least $40,000 but less than $60,000</t>
+        </is>
+      </c>
+      <c r="P18" s="1" t="inlineStr">
+        <is>
+          <t>At least $60,000 but less than $80,000</t>
+        </is>
+      </c>
+      <c r="Q18" s="1" t="inlineStr">
+        <is>
+          <t>At least $80,000 but less than $110,000</t>
+        </is>
+      </c>
+      <c r="R18" s="1" t="inlineStr">
+        <is>
+          <t>At least $110,000</t>
+        </is>
+      </c>
+      <c r="S18" s="1" t="inlineStr">
+        <is>
+          <t>Basic Banking (Up to 2 Services)</t>
+        </is>
+      </c>
+      <c r="T18" s="1" t="inlineStr">
+        <is>
+          <t>Basic Plus (3 - 5 Services)</t>
+        </is>
+      </c>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Banking (At Least 5 Services)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Not T2B</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>T2B</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
